--- a/new_details.xlsx
+++ b/new_details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="13395" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="13395" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>in admin panel there shoul be page for add test questions for tutors quiz and updated by admin and there shoul be mcq, theory type question</t>
   </si>
   <si>
-    <t xml:space="preserve">tutor test has no other security but they have specific timer and </t>
-  </si>
-  <si>
     <t xml:space="preserve">unsolved question page has first to show that question and skip option and why they want to sikp </t>
   </si>
   <si>
@@ -144,20 +141,45 @@
     <t>2nd for completed question and answer</t>
   </si>
   <si>
-    <t>tutor can only withdraw some limited amount like they have to remain 100Rs. In their wallet and in case of deletation of account he can reddem it.</t>
-  </si>
-  <si>
     <t>syncing of database</t>
   </si>
   <si>
     <t>Design Change</t>
+  </si>
+  <si>
+    <t>tutor test has no other security but they have specific timer and (can't copy paste)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tutor can only withdraw some limited amount like they have to remain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50Rs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In their wallet and in case of deletation of account he can reddem it.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +194,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,18 +255,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A191"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -519,34 +615,34 @@
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -557,12 +653,12 @@
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -570,7 +666,7 @@
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -590,7 +686,7 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -598,7 +694,7 @@
       <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -606,7 +702,7 @@
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -614,7 +710,7 @@
       <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -622,7 +718,7 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -656,12 +752,12 @@
       <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -684,12 +780,12 @@
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -700,37 +796,37 @@
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -741,7 +837,7 @@
       <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -749,22 +845,22 @@
       <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -772,7 +868,7 @@
       <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -783,7 +879,7 @@
       <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -791,7 +887,7 @@
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -802,7 +898,7 @@
       <c r="A76" s="1"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -810,40 +906,40 @@
       <c r="A78" s="1"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>33</v>
+      <c r="A79" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>34</v>
+      <c r="A81" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>35</v>
+      <c r="A83" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>36</v>
+      <c r="A85" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>37</v>
+      <c r="A87" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
@@ -852,20 +948,20 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>42</v>
+      <c r="A93" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -879,7 +975,7 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
@@ -887,17 +983,17 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
@@ -1180,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1287,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1216,12 +1312,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/new_details.xlsx
+++ b/new_details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t xml:space="preserve">when question go to re answer it goes to same tiutor then we senfd the que to admin so he can give anwer </t>
   </si>
@@ -173,6 +173,9 @@
       </rPr>
       <t>. In their wallet and in case of deletation of account he can reddem it.</t>
     </r>
+  </si>
+  <si>
+    <t>For new Question  refer to note</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1024,9 @@
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
